--- a/副本fish.xlsx
+++ b/副本fish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\晗\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa所有重要文件\大三下课程end\软件工程\大作业\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACEB413-173A-4481-B0B0-3E704811F2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548989D-BB6A-4DD5-AE0E-03C1B4FE9282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Species</t>
   </si>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丁鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香草鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -69,6 +77,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,7 +426,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,7 +463,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>126</v>
+      </c>
       <c r="I2">
         <f>I1+0.1</f>
         <v>2.2000000000000002</v>
@@ -460,7 +481,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I7" si="0">I2+0.1</f>
         <v>2.3000000000000003</v>
